--- a/biology/Virologie/Tepovirus/Tepovirus.xlsx
+++ b/biology/Virologie/Tepovirus/Tepovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tepovirus est un genre de virus de la famille des Betaflexiviridae, sous-famille des Trivirinae, qui comprend deux espèces acceptées par l'ICTV, dont l'espèce-type, Potato virus T.
 Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore. Les virions sont en forme de filaments flexueux.
@@ -513,10 +525,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non enveloppées, filamenteuses, légèrement flexueuses, à symétrie hélicoïdale, mesurant 640 nm et plus de long et 12 nm de diamètre[2].
-Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif, linéaire, d'environ 6,5 kb. L'extrémité 3' est polyadénylée. Cet ARN code trois protéines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non enveloppées, filamenteuses, légèrement flexueuses, à symétrie hélicoïdale, mesurant 640 nm et plus de long et 12 nm de diamètre.
+Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif, linéaire, d'environ 6,5 kb. L'extrémité 3' est polyadénylée. Cet ARN code trois protéines.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 février 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 février 2021) :
 Potato virus T
 Prunus virus T
 non-classés
